--- a/currentbuild/StructureDefinition-no-ehr-core-practitioner.xlsx
+++ b/currentbuild/StructureDefinition-no-ehr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T22:01:58+00:00</t>
+    <t>2024-12-06T17:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-ehr-core-practitioner.xlsx
+++ b/currentbuild/StructureDefinition-no-ehr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T17:06:03+00:00</t>
+    <t>2024-12-07T20:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
